--- a/media/excel/predatorypublisher_abv.xlsx
+++ b/media/excel/predatorypublisher_abv.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kuliah\skripsi2\Proyek\skripsi\media\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19247F33-D550-4548-8192-2D35FAF5287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Int. J. Econ. Financial Res.</t>
   </si>
   <si>
-    <t>The J. Social Sci. Res.</t>
+    <t>The J. Soc. Sci. Res.</t>
   </si>
   <si>
     <t>Business, Manage. Econ. Res.</t>
@@ -34,7 +28,7 @@
     <t>English Lit. Language Rev.</t>
   </si>
   <si>
-    <t>Scientific Rev.</t>
+    <t>Sci. Rev.</t>
   </si>
   <si>
     <t>Int. J. World Policy Develop. Stud.</t>
@@ -49,7 +43,7 @@
     <t>Res. J. Educ.</t>
   </si>
   <si>
-    <t>J. Biotechnology Res.</t>
+    <t>J. Biotechnol. Res.</t>
   </si>
   <si>
     <t>Acad. J. Appl. Math. Sci.</t>
@@ -79,10 +73,10 @@
     <t>Asian J. Bus. Manage.</t>
   </si>
   <si>
-    <t>Asian J. Humanities Social Stud.</t>
-  </si>
-  <si>
-    <t>Asian J. Pharmacy, Nursing Med. Sci.</t>
+    <t>Asian J. Humanities Soc. Stud.</t>
+  </si>
+  <si>
+    <t>Asian J. Pharmacy, Nsg. Med. Sci.</t>
   </si>
   <si>
     <t>Asian J. Fuzzy Appl. Math.</t>
@@ -100,7 +94,7 @@
     <t>Int. J. Environ. Pollution Remediation</t>
   </si>
   <si>
-    <t>J. Machine Intell. Data Sci.</t>
+    <t>J. Mach. Intell. Data Sci.</t>
   </si>
   <si>
     <t>J. Biomed. Eng. Biosciences</t>
@@ -115,7 +109,7 @@
     <t>J. Fluid Flow, Heat Mass Transfer</t>
   </si>
   <si>
-    <t>Int. J. Theor. Appl. Nanotechnology</t>
+    <t>Int. J. Theor. Appl. Nanotechnol.</t>
   </si>
   <si>
     <t>Int. J. Cult. Religious Stud.</t>
@@ -127,7 +121,7 @@
     <t>Int. J. Conflict Manage.</t>
   </si>
   <si>
-    <t>Human Resource Leadership J.</t>
+    <t>Hum. Resource Leadership J.</t>
   </si>
   <si>
     <t>J. Adv. Psychol.</t>
@@ -143,28 +137,13 @@
   </si>
   <si>
     <t>J. Int. Relations Policy</t>
-  </si>
-  <si>
-    <t>Academic Research Publishing Group</t>
-  </si>
-  <si>
-    <t>Academic Research Publishing Agency</t>
-  </si>
-  <si>
-    <t>Asian Online Journals</t>
-  </si>
-  <si>
-    <t>Avestia Publishing</t>
-  </si>
-  <si>
-    <t>CARI Journals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,14 +180,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,27 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,24 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,341 +467,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
